--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.83824466666667</v>
+        <v>0.09425133333333334</v>
       </c>
       <c r="H2">
-        <v>80.514734</v>
+        <v>0.282754</v>
       </c>
       <c r="I2">
-        <v>0.8882651037973995</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="J2">
-        <v>0.8882651037973996</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N2">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O2">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P2">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q2">
-        <v>236.9548263776738</v>
+        <v>0.2191351668448889</v>
       </c>
       <c r="R2">
-        <v>2132.593437399064</v>
+        <v>1.972216501604</v>
       </c>
       <c r="S2">
-        <v>0.1593952471731731</v>
+        <v>0.001478938963791195</v>
       </c>
       <c r="T2">
-        <v>0.1593952471731731</v>
+        <v>0.001478938963791194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.83824466666667</v>
+        <v>0.09425133333333334</v>
       </c>
       <c r="H3">
-        <v>80.514734</v>
+        <v>0.282754</v>
       </c>
       <c r="I3">
-        <v>0.8882651037973995</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="J3">
-        <v>0.8882651037973996</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>58.014853</v>
       </c>
       <c r="O3">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P3">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q3">
-        <v>519.005606371567</v>
+        <v>1.822659082795778</v>
       </c>
       <c r="R3">
-        <v>4671.050457344102</v>
+        <v>16.403931745162</v>
       </c>
       <c r="S3">
-        <v>0.3491257307416177</v>
+        <v>0.01230109057375822</v>
       </c>
       <c r="T3">
-        <v>0.3491257307416177</v>
+        <v>0.01230109057375822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.83824466666667</v>
+        <v>0.09425133333333334</v>
       </c>
       <c r="H4">
-        <v>80.514734</v>
+        <v>0.282754</v>
       </c>
       <c r="I4">
-        <v>0.8882651037973995</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="J4">
-        <v>0.8882651037973996</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>63.102767</v>
       </c>
       <c r="O4">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P4">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q4">
-        <v>564.5224999632198</v>
+        <v>1.982506642257556</v>
       </c>
       <c r="R4">
-        <v>5080.702499668978</v>
+        <v>17.842559780318</v>
       </c>
       <c r="S4">
-        <v>0.3797441258826087</v>
+        <v>0.0133798986325409</v>
       </c>
       <c r="T4">
-        <v>0.3797441258826088</v>
+        <v>0.0133798986325409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.717033</v>
       </c>
       <c r="I5">
-        <v>0.04100753414354395</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="J5">
-        <v>0.04100753414354396</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N5">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O5">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P5">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q5">
-        <v>10.93922646698533</v>
+        <v>2.880711313095333</v>
       </c>
       <c r="R5">
-        <v>98.45303820286799</v>
+        <v>25.926401817858</v>
       </c>
       <c r="S5">
-        <v>0.007358620768539596</v>
+        <v>0.01944186442419091</v>
       </c>
       <c r="T5">
-        <v>0.007358620768539598</v>
+        <v>0.0194418644241909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.717033</v>
       </c>
       <c r="I6">
-        <v>0.04100753414354395</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="J6">
-        <v>0.04100753414354396</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>58.014853</v>
       </c>
       <c r="O6">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P6">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q6">
         <v>23.96034701012767</v>
@@ -818,10 +818,10 @@
         <v>215.643123091149</v>
       </c>
       <c r="S6">
-        <v>0.01611769421377841</v>
+        <v>0.1617079142952822</v>
       </c>
       <c r="T6">
-        <v>0.01611769421377841</v>
+        <v>0.1617079142952822</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.717033</v>
       </c>
       <c r="I7">
-        <v>0.04100753414354395</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="J7">
-        <v>0.04100753414354396</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>63.102767</v>
       </c>
       <c r="O7">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P7">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q7">
         <v>26.06167414781233</v>
@@ -880,10 +880,10 @@
         <v>234.555067330311</v>
       </c>
       <c r="S7">
-        <v>0.01753121916122595</v>
+        <v>0.1758897301322329</v>
       </c>
       <c r="T7">
-        <v>0.01753121916122596</v>
+        <v>0.1758897301322329</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>6.410918000000001</v>
       </c>
       <c r="I8">
-        <v>0.07072736205905639</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="J8">
-        <v>0.0707273620590564</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N8">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O8">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P8">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q8">
-        <v>18.86732882470311</v>
+        <v>4.968479970429779</v>
       </c>
       <c r="R8">
-        <v>169.805959422328</v>
+        <v>44.716319733868</v>
       </c>
       <c r="S8">
-        <v>0.01269171254067541</v>
+        <v>0.03353217434190257</v>
       </c>
       <c r="T8">
-        <v>0.01269171254067541</v>
+        <v>0.03353217434190257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>6.410918000000001</v>
       </c>
       <c r="I9">
-        <v>0.07072736205905639</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="J9">
-        <v>0.0707273620590564</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>58.014853</v>
       </c>
       <c r="O9">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P9">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q9">
         <v>41.32538504056156</v>
@@ -1004,10 +1004,10 @@
         <v>371.928465365054</v>
       </c>
       <c r="S9">
-        <v>0.02779884277422553</v>
+        <v>0.278904217018811</v>
       </c>
       <c r="T9">
-        <v>0.02779884277422554</v>
+        <v>0.278904217018811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>6.410918000000001</v>
       </c>
       <c r="I10">
-        <v>0.07072736205905639</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="J10">
-        <v>0.0707273620590564</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>63.102767</v>
       </c>
       <c r="O10">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P10">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q10">
         <v>44.94962942334512</v>
@@ -1066,10 +1066,10 @@
         <v>404.5466648101061</v>
       </c>
       <c r="S10">
-        <v>0.03023680674415545</v>
+        <v>0.3033641716174902</v>
       </c>
       <c r="T10">
-        <v>0.03023680674415546</v>
+        <v>0.3033641716174902</v>
       </c>
     </row>
   </sheetData>
